--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="975">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1012,6 +1012,87 @@
   </si>
   <si>
     <t xml:space="preserve">#1は傷口に包帯を巻いた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">흡연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喫煙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠을 조금씩 깨는 상태. 우호도에 마이너스 영향을 준다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you gradually emerge from sleepiness. Has a negative effect on affection gain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠気を少しずつ覚ます状態。友好度にマイナスの影響を及ぼす。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 만족스럽게 연초를 피우기 시작했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 start(s) to smoke with a satisfied expression.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は満足そうに煙草をくゆらせはじめた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 아쉬워하며 연초를 내버렸다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 throw(s) away #his weed with a look of regret.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は残念そうに煙草を投げ捨てた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">날카로운 의식</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharpened Mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">意識明瞭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠이 오지 않고, 수면을 무효화하는 상태. 식사를 통한 스태미나 회복 효과를 방해한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you are unaffected by drowsiness and immune to sleep. Prevents stamina recovery from food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠気が訪れず、睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 정신이 말똥말똥해졌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) sharp and alert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1はシャキッとなった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 머리가 무거워진 느낌이 들었다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) mentally sluggish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は頭が鈍くなったような気がした。</t>
   </si>
   <si>
     <t xml:space="preserve">56</t>
@@ -3140,12 +3221,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="bottomLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4333,60 +4414,57 @@
         <v>327</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>330</v>
-      </c>
       <c r="L24" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>342</v>
@@ -4405,9 +4483,6 @@
       </c>
       <c r="H25" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>342</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>343</v>
@@ -4439,7 +4514,7 @@
         <v>354</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>355</v>
@@ -4492,581 +4567,581 @@
         <v>367</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="J27" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>370</v>
-      </c>
       <c r="L27" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="J28" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>383</v>
-      </c>
       <c r="L28" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="J29" s="0" t="s">
+      <c r="L29" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="N29" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="R29" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="S29" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="R29" s="0" t="s">
+      <c r="T29" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="I30" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="M30" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="L30" s="0" t="s">
+      <c r="N30" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="R30" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="S30" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="R30" s="0" t="s">
+      <c r="T30" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>414</v>
-      </c>
       <c r="H31" s="0" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>436</v>
-      </c>
       <c r="L32" s="0" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>450</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>451</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="J34" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>462</v>
+      <c r="L34" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>473</v>
-      </c>
       <c r="I35" s="0" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="R36" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="S36" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="T36" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H37" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>490</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>496</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="L37" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="N37" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="R37" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="S37" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="G38" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="I38" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>510</v>
@@ -5078,251 +5153,251 @@
         <v>512</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="I39" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="H39" s="0" t="s">
+      <c r="J39" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>516</v>
-      </c>
       <c r="L39" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G40" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>528</v>
-      </c>
       <c r="K40" s="0" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>535</v>
+        <v>539</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="T40" s="0" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="I41" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="K41" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>540</v>
-      </c>
       <c r="L41" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>552</v>
+        <v>21</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="K42" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="L42" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="R42" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>563</v>
-      </c>
-      <c r="T42" s="0" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="F43" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="G43" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="I43" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="J43" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="I43" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="J43" s="0" t="s">
+      <c r="K43" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="L43" s="0" t="s">
         <v>572</v>
@@ -5334,832 +5409,850 @@
         <v>574</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="C45" s="0" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>588</v>
+        <v>601</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="R46" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="S46" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="T46" s="0" t="s">
         <v>591</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>595</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>592</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G47" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="J47" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>604</v>
-      </c>
       <c r="K47" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G48" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="J48" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>614</v>
-      </c>
       <c r="K48" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="T48" s="0" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>623</v>
+        <v>368</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>552</v>
+        <v>368</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>341</v>
+        <v>650</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>648</v>
-      </c>
       <c r="K51" s="0" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="K52" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="J52" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>665</v>
-      </c>
       <c r="L52" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T52" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="J53" s="0" t="s">
+      <c r="L53" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="K53" s="0" t="s">
+      <c r="M53" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="L53" s="0" t="s">
+      <c r="N53" s="0" t="s">
         <v>682</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="R53" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="H54" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="I54" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="K54" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="L54" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="M54" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="I54" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="L54" s="0" t="s">
+      <c r="N54" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="R54" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="N54" s="0" t="s">
+      <c r="S54" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="R54" s="0" t="s">
+      <c r="T54" s="0" t="s">
         <v>698</v>
-      </c>
-      <c r="S54" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="F55" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="G55" s="0" t="s">
         <v>704</v>
       </c>
+      <c r="H55" s="0" t="s">
+        <v>705</v>
+      </c>
       <c r="I55" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>719</v>
+        <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="N57" s="0" t="s">
         <v>731</v>
-      </c>
-      <c r="R57" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="T57" s="0" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="F58" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="G58" s="0" t="s">
         <v>737</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="H58" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="I58" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="L58" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="M58" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="N58" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="J58" s="0" t="s">
+      <c r="R58" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="K58" s="0" t="s">
-        <v>738</v>
+      <c r="S58" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>747</v>
+        <v>755</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="R60" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="S60" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="T60" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>772</v>
@@ -6170,698 +6263,786 @@
       <c r="K61" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="L61" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="R61" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="S61" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="T61" s="0" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>781</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="F62" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="G62" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="H62" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="I62" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="L62" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="M62" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="N62" s="0" t="s">
         <v>787</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="R62" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="J62" s="0" t="s">
+      <c r="S62" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="K62" s="0" t="s">
+      <c r="T62" s="0" t="s">
         <v>790</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="G63" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="0" t="s">
+      <c r="H63" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="I63" s="0" t="s">
         <v>799</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="J63" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="K63" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="L63" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="M63" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="N63" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="J63" s="0" t="s">
+      <c r="R63" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="K63" s="0" t="s">
+      <c r="S63" s="0" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T63" s="0" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>224</v>
+        <v>810</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>813</v>
+        <v>817</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>142</v>
+        <v>835</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>144</v>
+        <v>836</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="Q66" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>840</v>
+        <v>844</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>847</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>845</v>
+        <v>142</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>846</v>
+        <v>143</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>847</v>
+        <v>144</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>854</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>850</v>
+        <v>857</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q68" s="0" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>864</v>
+        <v>874</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>868</v>
+        <v>881</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>884</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>838</v>
+        <v>889</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>839</v>
+        <v>890</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>877</v>
+        <v>79</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>881</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="R73" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="S73" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="T73" s="0" t="s">
-        <v>645</v>
+        <v>898</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>888</v>
+        <v>317</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>902</v>
+        <v>910</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>907</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>906</v>
+        <v>670</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>907</v>
+        <v>671</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>908</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>915</v>
-      </c>
-      <c r="L76" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="I76" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="M76" s="0" t="s">
+      <c r="J76" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="N76" s="0" t="s">
+      <c r="K76" s="0" t="s">
         <v>918</v>
-      </c>
-      <c r="R76" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="S76" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="T76" s="0" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="H78" s="0" t="s">
+        <v>942</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>944</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="R78" s="0" t="s">
         <v>933</v>
       </c>
-      <c r="L78" s="0" t="s">
+      <c r="S78" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="M78" s="0" t="s">
+      <c r="T78" s="0" t="s">
         <v>935</v>
-      </c>
-      <c r="N78" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="R78" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="S78" s="0" t="s">
-        <v>907</v>
-      </c>
-      <c r="T78" s="0" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="G79" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="L79" s="0" t="s">
         <v>943</v>
       </c>
-      <c r="H79" s="0" t="s">
+      <c r="M79" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="L79" s="0" t="s">
+      <c r="N79" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="M79" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>947</v>
-      </c>
       <c r="R79" s="0" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>908</v>
+        <v>935</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="T80" s="0" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>966</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>933</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="T81" s="0" t="s">
+        <v>935</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1006">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1060,6 +1060,9 @@
     <t xml:space="preserve">87</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
     <t xml:space="preserve">날카로운 의식</t>
   </si>
   <si>
@@ -1069,13 +1072,13 @@
     <t xml:space="preserve">意識明瞭</t>
   </si>
   <si>
-    <t xml:space="preserve">잠이 오지 않고, 수면을 무효화하는 상태. 식사를 통한 스태미나 회복 효과를 방해한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A condition where you are unaffected by drowsiness and immune to sleep. Prevents stamina recovery from food.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眠気が訪れず、睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
+    <t xml:space="preserve">잠이 오지 않고, 피곤하지 않을 때 수면을 무효화하는 상태. 식사를 통한 스태미나 회복 효과를 방해한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you are unaffected by drowsiness and immune to sleep except when fatigued. Prevents stamina recovery from food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠気が訪れず、疲労時以外の睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
   </si>
   <si>
     <t xml:space="preserve">#1은(는) 정신이 말똥말똥해졌다.</t>
@@ -3315,9 +3318,9 @@
   <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4558,2173 +4561,2173 @@
         <v>341</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="I25" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="J25" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>344</v>
-      </c>
       <c r="L25" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>357</v>
-      </c>
       <c r="L26" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="J27" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="K27" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>371</v>
-      </c>
       <c r="L27" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="J28" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>384</v>
-      </c>
       <c r="L28" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="L29" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>410</v>
-      </c>
       <c r="L30" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="L32" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D33" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="I33" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="J33" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="K33" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="L33" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D34" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="J34" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="K34" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>467</v>
-      </c>
       <c r="L34" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="J35" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="K35" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>481</v>
-      </c>
       <c r="L35" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="J36" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>495</v>
-      </c>
       <c r="L36" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="J39" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="K39" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>525</v>
-      </c>
       <c r="L39" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="T39" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D40" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="J40" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="K40" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>539</v>
-      </c>
       <c r="L40" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T40" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D41" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="I41" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="J41" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="K41" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>553</v>
-      </c>
       <c r="L41" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D42" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="I42" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="J42" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="K42" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>563</v>
-      </c>
       <c r="L42" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="K43" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>576</v>
-      </c>
       <c r="L43" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D44" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="J44" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="K44" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>590</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>587</v>
-      </c>
       <c r="L44" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="J45" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="K45" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>602</v>
-      </c>
       <c r="L45" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="N46" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="T46" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="N47" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>621</v>
-      </c>
       <c r="R47" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="J48" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="K48" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>629</v>
-      </c>
       <c r="L48" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="I49" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="J49" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="K49" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>639</v>
-      </c>
       <c r="L49" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="I50" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="J50" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="K50" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>652</v>
-      </c>
       <c r="L50" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="K51" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>662</v>
-      </c>
       <c r="L51" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="K52" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="G52" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>673</v>
-      </c>
       <c r="L52" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>683</v>
-      </c>
       <c r="L53" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="S53" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T53" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="K54" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>696</v>
-      </c>
       <c r="L54" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="J55" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="K55" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>706</v>
-      </c>
       <c r="L55" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="T56" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="S57" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="T57" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="I58" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="K58" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>748</v>
-      </c>
       <c r="L58" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T58" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="J59" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>760</v>
-      </c>
       <c r="K59" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D60" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="I60" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="J60" s="0" t="s">
         <v>765</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="K60" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="G60" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>765</v>
-      </c>
       <c r="L60" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>795</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="J62" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="K62" s="0" t="s">
         <v>796</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>797</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>799</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="I63" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="J63" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="K63" s="0" t="s">
         <v>805</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>807</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="I64" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="J64" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="K64" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>811</v>
-      </c>
       <c r="L64" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T64" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>224</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>317</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>79</v>
@@ -6739,504 +6742,504 @@
         <v>144</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>317</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="J77" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="K77" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="G77" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>937</v>
-      </c>
       <c r="L77" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="S77" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D78" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="I78" s="0" t="s">
         <v>947</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="J78" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="K78" s="0" t="s">
         <v>949</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>968</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="T80" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="R80" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="S80" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="T80" s="0" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>977</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>981</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="N81" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>979</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>973</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>975</v>
-      </c>
       <c r="R81" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1030">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1471,6 +1471,48 @@
     <t xml:space="preserve">#1の士気は元通りになった。</t>
   </si>
   <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수중 호흡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Breathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水中呼吸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">물 속에서 호흡할 수 있게 되는 가호.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing that allows breathing underwater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水中での呼吸を可能にする加護。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1의 주위에 공기방울이 생겨나기 시작했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubbles of air start forming around #1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の周りに空気の泡が立ち始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공기방울이 터졌다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bubbles of air burst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空気の泡は弾けた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">71</t>
   </si>
   <si>
@@ -1550,6 +1592,36 @@
   </si>
   <si>
     <t xml:space="preserve">大いなる存在は#1の元を去った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명의 광휘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いのちの輝き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자폭하고자 하는 욕망을 키우는 가호.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing that intensifies the desire for self-destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自爆への欲求を高める加護。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1의 생명은 눈부시게 빛난다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#your life is bathed in a radiant glow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の命はまばゆい輝きを帯びた。</t>
   </si>
   <si>
     <t xml:space="preserve">76</t>
@@ -3095,7 +3167,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
+      <name val="Noto Sans KR"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -3315,17 +3387,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3602,7 +3674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>78</v>
       </c>
@@ -3664,7 +3736,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>98</v>
       </c>
@@ -4353,7 +4425,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>287</v>
       </c>
@@ -5091,34 +5163,34 @@
         <v>479</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D35" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="I35" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="J35" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="K35" s="0" t="s">
         <v>483</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>487</v>
@@ -5168,36 +5240,36 @@
         <v>494</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>496</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S36" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>508</v>
@@ -5226,199 +5298,190 @@
       <c r="K37" s="0" t="s">
         <v>510</v>
       </c>
+      <c r="L37" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H38" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>516</v>
-      </c>
       <c r="J38" s="0" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>518</v>
+        <v>523</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="R39" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="S39" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="R40" s="0" t="s">
-        <v>548</v>
-      </c>
-      <c r="S40" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="T40" s="0" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="0" t="s">
+      <c r="G41" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="H41" s="0" t="s">
         <v>553</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="I41" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="J41" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="L41" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="M41" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="N41" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="L41" s="0" t="s">
+      <c r="R41" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="M41" s="0" t="s">
+      <c r="S41" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="N41" s="0" t="s">
+      <c r="T41" s="0" t="s">
         <v>560</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="S41" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="T41" s="0" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,80 +5513,89 @@
         <v>562</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>564</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="J43" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="K43" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>580</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>575</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>577</v>
-      </c>
       <c r="L43" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>586</v>
@@ -5547,134 +5619,125 @@
         <v>586</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>588</v>
       </c>
       <c r="L44" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="M44" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="M44" s="0" t="s">
+      <c r="N44" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="N44" s="0" t="s">
+      <c r="R44" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="R44" s="0" t="s">
+      <c r="S44" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="S44" s="0" t="s">
+      <c r="T44" s="0" t="s">
         <v>597</v>
-      </c>
-      <c r="T44" s="0" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="E45" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="F45" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="G45" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="H45" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="I45" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="M45" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="L45" s="0" t="s">
+      <c r="N45" s="0" t="s">
         <v>607</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="R45" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="S45" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="T45" s="0" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="C46" s="0" t="s">
+      <c r="G46" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="H46" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="I46" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="K46" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="L46" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="M46" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="N46" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="I46" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>615</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="L46" s="0" t="s">
+      <c r="R46" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="S46" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="T46" s="0" t="s">
         <v>622</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="S46" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,113 +5745,122 @@
         <v>623</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D47" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="J47" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>625</v>
-      </c>
       <c r="K47" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>369</v>
+        <v>624</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="L48" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="R48" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="S48" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="N48" s="0" t="s">
+      <c r="T48" s="0" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>641</v>
@@ -5800,13 +5872,13 @@
         <v>643</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>644</v>
@@ -5818,197 +5890,197 @@
         <v>646</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>369</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D50" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="I50" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="J50" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="K50" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>651</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>653</v>
-      </c>
       <c r="L50" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D51" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="K51" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="G51" s="0" t="s">
-        <v>665</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>663</v>
-      </c>
       <c r="L51" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>671</v>
+        <v>369</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F52" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="J52" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="K52" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="I52" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>674</v>
-      </c>
       <c r="L52" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>600</v>
+        <v>369</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="K53" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>684</v>
-      </c>
       <c r="L53" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="R53" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="T53" s="0" t="s">
         <v>693</v>
       </c>
     </row>
@@ -6017,351 +6089,360 @@
         <v>694</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>369</v>
+        <v>695</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>701</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="K54" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>697</v>
-      </c>
       <c r="L54" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>451</v>
+        <v>624</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D55" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="J55" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="K55" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>707</v>
-      </c>
       <c r="L55" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G56" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="J56" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="K56" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="J56" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>723</v>
-      </c>
       <c r="L56" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="R56" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="S56" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="T56" s="0" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="E57" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="F57" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="G57" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="I57" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="L57" s="0" t="s">
         <v>735</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="M57" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="N57" s="0" t="s">
         <v>737</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="R57" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="T57" s="0" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="K58" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="L58" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="M58" s="0" t="s">
         <v>749</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="N58" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="R58" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="S58" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="L58" s="0" t="s">
+      <c r="T58" s="0" t="s">
         <v>753</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="R58" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="S58" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="T58" s="0" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="I59" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="J59" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>761</v>
-      </c>
       <c r="K59" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="T60" s="0" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>777</v>
+        <v>79</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>784</v>
@@ -6372,742 +6453,742 @@
       <c r="K61" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="L61" s="0" t="s">
-        <v>787</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="N61" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="R61" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="S61" s="0" t="s">
-        <v>791</v>
-      </c>
-      <c r="T61" s="0" t="s">
-        <v>792</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="L62" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="M62" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="N62" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="R62" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="S62" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="T62" s="0" t="s">
         <v>799</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="E63" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="F63" s="0" t="s">
         <v>805</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="G63" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="G63" s="0" t="s">
+      <c r="H63" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="I63" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="I63" s="0" t="s">
-        <v>803</v>
-      </c>
       <c r="J63" s="0" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>805</v>
+        <v>810</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="R64" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="S64" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="T64" s="0" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F65" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="I65" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="J65" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="K65" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="L65" s="0" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="N65" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="R65" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="S65" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="T65" s="0" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>839</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="L66" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="M66" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="N66" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="R66" s="0" t="s">
         <v>843</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="S66" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="T66" s="0" t="s">
         <v>845</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>849</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>851</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="J67" s="0" t="s">
         <v>855</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="0" t="s">
+      <c r="K67" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="L67" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="M67" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="N67" s="0" t="s">
         <v>859</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="R67" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="S67" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="T67" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="J67" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>863</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>865</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E68" s="0" t="s">
+      <c r="F68" s="0" t="s">
         <v>867</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="G68" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="H68" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="H68" s="0" t="s">
+      <c r="I68" s="0" t="s">
         <v>870</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>871</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>871</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>142</v>
+        <v>890</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>144</v>
+        <v>891</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="Q70" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>902</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>903</v>
+        <v>142</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>904</v>
+        <v>143</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>905</v>
+        <v>144</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>909</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q72" s="0" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>913</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>922</v>
+        <v>929</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>926</v>
+        <v>936</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>939</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>931</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>935</v>
+        <v>79</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>942</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="N77" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="R77" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="S77" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="T77" s="0" t="s">
-        <v>693</v>
+        <v>953</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>946</v>
+        <v>317</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>948</v>
+        <v>921</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>949</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="H79" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="I79" s="0" t="s">
         <v>960</v>
       </c>
+      <c r="J79" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>962</v>
+      </c>
       <c r="L79" s="0" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>964</v>
+        <v>715</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>965</v>
+        <v>716</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>966</v>
+        <v>717</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F80" s="0" t="s">
+        <v>974</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>971</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="J80" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="H80" s="0" t="s">
+      <c r="K80" s="0" t="s">
         <v>973</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>975</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="R80" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="S80" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="T80" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7115,131 +7196,219 @@
         <v>977</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>975</v>
+        <v>986</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E82" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R82" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="S82" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="T82" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="R82" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="S82" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="T82" s="0" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D83" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L83" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="M83" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="N83" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>1005</v>
-      </c>
       <c r="R83" s="0" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>966</v>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R84" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="T84" s="0" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1048">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1555,6 +1555,48 @@
     <t xml:space="preserve">#1の高揚は冷めた。</t>
   </si>
   <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광전사화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berserk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狂戦士化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분노에 지배당해 공격만을 할 수 있는 상태. 가하는 모든 대미지가 상승한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you are consumed by rage and can only perform offensive actions. All damage dealt is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怒りに支配され攻撃行動しか行わなくなる状態。全ての与ダメージが上昇する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">분노가 #1을(를) 지배했다!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 are/is consumed by fury!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怒りが#1を支配した！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 진정했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) calm again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は落ち着いた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
@@ -1957,7 +1999,7 @@
     <t xml:space="preserve">ホウキ変容</t>
   </si>
   <si>
-    <t xml:space="preserve">다른 물건으로 변신.</t>
+    <t xml:space="preserve">다른 것으로 변신.</t>
   </si>
   <si>
     <t xml:space="preserve">Transformation into another.</t>
@@ -1987,6 +2029,18 @@
     <t xml:space="preserve">プチ変容</t>
   </si>
   <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고양이 변신</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫変容</t>
+  </si>
+  <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
@@ -2029,13 +2083,13 @@
     <t xml:space="preserve">重力</t>
   </si>
   <si>
-    <t xml:space="preserve">중력을 부여하는 저주.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hex that applies gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重力を付与する呪い。</t>
+    <t xml:space="preserve">중력을 부여하는 저주. 텔레포트와 넉백을 방해한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex that applies gravity. It blocks teleportation and knockback effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重力を付与する呪い。テレポートやノックバックを阻害する。</t>
   </si>
   <si>
     <t xml:space="preserve">#1은(는) 중력을 느낀다.</t>
@@ -3387,12 +3441,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5269,227 +5323,227 @@
         <v>507</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="J37" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="L37" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S37" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>523</v>
-      </c>
       <c r="L38" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="I39" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="J39" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="K39" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>534</v>
+      <c r="L39" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>554</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>550</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="M41" s="0" t="s">
         <v>556</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>558</v>
-      </c>
-      <c r="S41" s="0" t="s">
-        <v>559</v>
-      </c>
-      <c r="T41" s="0" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>562</v>
@@ -5510,10 +5564,10 @@
         <v>567</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>564</v>
@@ -5566,213 +5620,213 @@
         <v>576</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>578</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>447</v>
+        <v>586</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>448</v>
+        <v>587</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G44" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="I44" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="J44" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="I44" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>587</v>
-      </c>
       <c r="K44" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>595</v>
+        <v>447</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>596</v>
+        <v>448</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>597</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D45" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="J45" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="K45" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="L45" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="T45" s="0" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>609</v>
+        <v>21</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F46" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="I46" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="J46" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="K46" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="I46" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>612</v>
-      </c>
       <c r="L46" s="0" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="S46" s="0" t="s">
         <v>621</v>
-      </c>
-      <c r="T46" s="0" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="E47" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="F47" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="G47" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="I47" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="J47" s="0" t="s">
+      <c r="K47" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>631</v>
@@ -5798,122 +5852,122 @@
         <v>637</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D48" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="J48" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="K48" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>640</v>
-      </c>
       <c r="L48" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="R49" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="S49" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="T49" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>641</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>635</v>
-      </c>
-      <c r="T49" s="0" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>369</v>
+        <v>638</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>655</v>
@@ -5925,13 +5979,13 @@
         <v>657</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="L50" s="0" t="s">
         <v>658</v>
@@ -5942,577 +5996,604 @@
       <c r="N50" s="0" t="s">
         <v>660</v>
       </c>
+      <c r="R50" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="T50" s="0" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="G51" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="H51" s="0" t="s">
+      <c r="J51" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>663</v>
-      </c>
       <c r="K51" s="0" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>369</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="I52" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="L52" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="M52" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="N52" s="0" t="s">
         <v>678</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="G53" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="H53" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="I53" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="L53" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="M53" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="N53" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="G53" s="0" t="s">
+      <c r="R53" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="S53" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="L53" s="0" t="s">
+      <c r="T53" s="0" t="s">
         <v>691</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="E54" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="F54" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="G54" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="I54" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="L54" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="M54" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="H54" s="0" t="s">
+      <c r="N54" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="N54" s="0" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="C55" s="0" t="s">
+      <c r="F55" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="G55" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="I55" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="L55" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="M55" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="N55" s="0" t="s">
         <v>711</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>707</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>713</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="R55" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="T55" s="0" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="G56" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C56" s="0" t="s">
+      <c r="H56" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="I56" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="L56" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="M56" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="N56" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>723</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>719</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="N56" s="0" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="C57" s="0" t="s">
+      <c r="H57" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="I57" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="L57" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="M57" s="0" t="s">
         <v>731</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="N57" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="R57" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="S57" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>729</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="L57" s="0" t="s">
+      <c r="T57" s="0" t="s">
         <v>735</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="N57" s="0" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="0" t="s">
+      <c r="E58" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="F58" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="G58" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="H58" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="I58" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="L58" s="0" t="s">
         <v>743</v>
       </c>
-      <c r="H58" s="0" t="s">
+      <c r="M58" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="N58" s="0" t="s">
         <v>745</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>749</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="R58" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="S58" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="T58" s="0" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="M59" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="0" t="s">
+      <c r="N59" s="0" t="s">
         <v>755</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>765</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="R59" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="S59" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="T59" s="0" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="T60" s="0" t="s">
         <v>771</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>775</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="M60" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="N60" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="R60" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="S60" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="T60" s="0" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>780</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="N61" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="R61" s="0" t="s">
         <v>785</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="S61" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="I61" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>785</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>786</v>
+      <c r="T61" s="0" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="J62" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="K62" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="G62" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>790</v>
-      </c>
       <c r="L62" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>801</v>
+        <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>802</v>
@@ -6523,812 +6604,803 @@
       <c r="E63" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>805</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>807</v>
-      </c>
       <c r="I63" s="0" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>811</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="R63" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="S63" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="T63" s="0" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>820</v>
+        <v>808</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="T64" s="0" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="H65" s="0" t="s">
         <v>825</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="I65" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="J65" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="K65" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="L65" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="M65" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="N65" s="0" t="s">
         <v>831</v>
       </c>
-      <c r="H65" s="0" t="s">
+      <c r="R65" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>829</v>
+      <c r="S65" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="T65" s="0" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E66" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>840</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="I66" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="J66" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="K66" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="R66" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="S66" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="T66" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="E67" s="0" t="s">
         <v>847</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="F67" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="G67" s="0" t="s">
         <v>849</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="H67" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="I67" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>851</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="N67" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="R67" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="S67" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="T67" s="0" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>863</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>878</v>
+        <v>854</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="T68" s="0" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>865</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>874</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>875</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>876</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>877</v>
+      </c>
+      <c r="R69" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="S69" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="0" t="s">
+      <c r="T69" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="D69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>881</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>883</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>889</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>886</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>888</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="K70" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="E70" s="0" t="s">
+      <c r="L70" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="M70" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="N70" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="O70" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="P70" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="J70" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>895</v>
+      <c r="Q70" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>142</v>
+        <v>908</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>144</v>
+        <v>909</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="L72" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="P72" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="Q72" s="0" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>919</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="0" t="s">
+      <c r="H73" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="I73" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="J73" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="K73" s="0" t="s">
         <v>923</v>
       </c>
-      <c r="J73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>924</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>926</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>925</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="H74" s="0" t="s">
         <v>927</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="I74" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="J74" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="K74" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="J74" s="0" t="s">
+      <c r="L74" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="K74" s="0" t="s">
+      <c r="M74" s="2" t="s">
         <v>932</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>934</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>950</v>
+        <v>954</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>956</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>957</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>959</v>
+        <v>79</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>963</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>960</v>
+        <v>969</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>961</v>
+        <v>970</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="L79" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="M79" s="0" t="s">
-        <v>967</v>
-      </c>
-      <c r="N79" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="R79" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="S79" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="T79" s="0" t="s">
-        <v>717</v>
+        <v>971</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>970</v>
+        <v>317</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>971</v>
+        <v>938</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>972</v>
+        <v>939</v>
       </c>
       <c r="E80" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="I80" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="J80" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="K80" s="0" t="s">
         <v>975</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
         <v>979</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="E81" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="F81" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="G81" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="H81" s="0" t="s">
         <v>983</v>
       </c>
-      <c r="H81" s="0" t="s">
+      <c r="I81" s="0" t="s">
+        <v>978</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="L81" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="L81" s="0" t="s">
+      <c r="M81" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="M81" s="0" t="s">
+      <c r="N81" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="N81" s="0" t="s">
-        <v>987</v>
-      </c>
       <c r="R81" s="0" t="s">
-        <v>988</v>
+        <v>733</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>989</v>
+        <v>734</v>
       </c>
       <c r="T81" s="0" t="s">
-        <v>990</v>
+        <v>735</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>991</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="C82" s="0" t="s">
+      <c r="F82" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="G82" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="H82" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>997</v>
-      </c>
-      <c r="L82" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R82" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="S82" s="0" t="s">
+      <c r="I82" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="T82" s="0" t="s">
+      <c r="J82" s="0" t="s">
         <v>990</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="C83" s="0" t="s">
+      <c r="H83" s="0" t="s">
         <v>1002</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="L83" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="M83" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="N83" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="R83" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="H83" s="0" t="s">
+      <c r="S83" s="0" t="s">
         <v>1007</v>
       </c>
-      <c r="L83" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="S83" s="0" t="s">
-        <v>989</v>
-      </c>
       <c r="T83" s="0" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>1010</v>
@@ -7358,13 +7430,13 @@
         <v>1018</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,43 +7444,131 @@
         <v>1019</v>
       </c>
       <c r="B85" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="E85" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="F85" s="0" t="s">
         <v>1023</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="G85" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="H85" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="H85" s="0" t="s">
+      <c r="L85" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="L85" s="0" t="s">
+      <c r="B86" s="0" t="s">
         <v>1027</v>
       </c>
-      <c r="M85" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="N85" s="0" t="s">
+      <c r="D86" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="R85" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="S85" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="T85" s="0" t="s">
-        <v>990</v>
+      <c r="E86" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T86" s="0" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="T87" s="0" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1062">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -257,6 +257,48 @@
   </si>
   <si>
     <t xml:space="preserve">#1は優しい目つきになった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잠의 노래</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hymn of Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠りの歌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주변의 생물을 잠재우는 상태. 노래를 유지하는 동안 마나가 감소한다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition that puts nearby creatures to sleep. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1은(는) 자장가를 부르기 시작했다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 begin(s) to sing a lullaby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は子守唄を歌い始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1이(가) 노래를 멈췄다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 stop(s) singing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は歌うのを止めた。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -3221,7 +3263,7 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans KR"/>
+      <name val="나눔고딕"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -3441,17 +3483,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.9609375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="14.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,7 +3770,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>78</v>
       </c>
@@ -3754,234 +3796,234 @@
         <v>85</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="R7" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="S7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="T7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="B8" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="L8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="M8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="N8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="R8" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="S8" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="T8" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="K9" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="L9" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="L9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="M9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="N9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>127</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="L10" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>144</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>149</v>
@@ -4007,7 +4049,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>156</v>
@@ -4060,60 +4102,60 @@
         <v>169</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="R13" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="S13" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="T13" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>185</v>
@@ -4125,75 +4167,75 @@
         <v>187</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>187</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>202</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>203</v>
@@ -4219,7 +4261,7 @@
         <v>209</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>210</v>
@@ -4243,354 +4285,354 @@
         <v>210</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>212</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="N17" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="R17" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="S17" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="R17" s="0" t="s">
+      <c r="T17" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="H18" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="I18" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="N18" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="R18" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="S18" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="R18" s="0" t="s">
+      <c r="T18" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="L19" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="N19" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="R19" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="S19" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="R19" s="0" t="s">
+      <c r="T19" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="N20" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="R20" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="S20" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="T20" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="R20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="B21" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="T20" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="E21" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="T21" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="J22" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>305</v>
-      </c>
       <c r="K22" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="L22" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="L22" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="M22" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="N22" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="R22" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>318</v>
@@ -4628,57 +4670,57 @@
       <c r="N23" s="0" t="s">
         <v>326</v>
       </c>
+      <c r="R23" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="I24" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>331</v>
-      </c>
       <c r="L24" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="T24" s="0" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4740,60 +4782,60 @@
         <v>355</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D26" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="L26" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>369</v>
+        <v>21</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>370</v>
@@ -4846,272 +4888,272 @@
         <v>382</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="J28" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>385</v>
-      </c>
       <c r="L28" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="J29" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>398</v>
-      </c>
       <c r="L29" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>411</v>
-      </c>
       <c r="L30" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="J31" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="K31" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="L31" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="M31" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="N31" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="R31" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="S31" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="R31" s="0" t="s">
+      <c r="T31" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="T31" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="I32" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="K32" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>451</v>
+        <v>93</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>452</v>
@@ -5188,63 +5230,63 @@
         <v>466</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>468</v>
       </c>
       <c r="L34" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="N34" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="N34" s="0" t="s">
+      <c r="R34" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="R34" s="0" t="s">
+      <c r="S34" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="T34" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="H35" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="I35" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="J35" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="J35" s="0" t="s">
+      <c r="K35" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>483</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>487</v>
@@ -5270,34 +5312,34 @@
         <v>493</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="J36" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>501</v>
@@ -5323,34 +5365,34 @@
         <v>507</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="H37" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="I37" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="J37" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>511</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>515</v>
@@ -5376,227 +5418,227 @@
         <v>521</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="K38" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>522</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="L38" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="I39" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="J39" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="K39" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>537</v>
-      </c>
       <c r="L39" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F40" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="I40" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="J40" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>548</v>
+      <c r="L40" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>568</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>569</v>
-      </c>
-      <c r="M42" s="0" t="s">
         <v>570</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="R42" s="0" t="s">
-        <v>572</v>
-      </c>
-      <c r="S42" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="T42" s="0" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>576</v>
@@ -5617,10 +5659,10 @@
         <v>581</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>578</v>
@@ -5649,7 +5691,7 @@
         <v>589</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>590</v>
@@ -5673,213 +5715,213 @@
         <v>590</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>592</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>447</v>
+        <v>600</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>449</v>
+        <v>602</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G45" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="J45" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>601</v>
-      </c>
       <c r="K45" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>609</v>
+        <v>461</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
       <c r="T45" s="0" t="s">
-        <v>611</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D46" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="J46" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="K46" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="G46" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>615</v>
-      </c>
       <c r="L46" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="T46" s="0" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>623</v>
+        <v>21</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="I47" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="J47" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="K47" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>626</v>
-      </c>
       <c r="L47" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="R47" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="S47" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="T47" s="0" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="E48" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="F48" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="G48" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="I48" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="J48" s="0" t="s">
+      <c r="K48" s="0" t="s">
         <v>640</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>641</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>645</v>
@@ -5905,774 +5947,774 @@
         <v>651</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="I49" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="J49" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="K49" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="G49" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>654</v>
-      </c>
       <c r="L49" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="T49" s="0" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="R50" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="S50" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="T50" s="0" t="s">
         <v>664</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>655</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>663</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>659</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="S50" s="0" t="s">
-        <v>649</v>
-      </c>
-      <c r="T50" s="0" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>508</v>
+        <v>652</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="T51" s="0" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="F52" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="G52" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="H52" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="I52" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="L52" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="M52" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="N52" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>671</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>678</v>
+      <c r="R52" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>508</v>
+        <v>383</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="G53" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="I53" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="J53" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>681</v>
-      </c>
       <c r="K53" s="0" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="R53" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>369</v>
+        <v>522</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D54" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="J54" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="K54" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>695</v>
-      </c>
       <c r="L54" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="I55" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="H55" s="0" t="s">
+      <c r="J55" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>704</v>
-      </c>
       <c r="K55" s="0" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>713</v>
+        <v>383</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F56" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="J56" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="H56" s="0" t="s">
+      <c r="K56" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>716</v>
-      </c>
       <c r="L56" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>638</v>
+        <v>727</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="I57" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="J57" s="0" t="s">
         <v>729</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>725</v>
-      </c>
       <c r="K57" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="R57" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="T57" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>369</v>
+        <v>652</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D58" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="I58" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="J58" s="0" t="s">
         <v>739</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="K58" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="G58" s="0" t="s">
-        <v>741</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>739</v>
-      </c>
       <c r="L58" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="G59" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>756</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>751</v>
       </c>
-      <c r="H59" s="0" t="s">
+      <c r="J59" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>748</v>
-      </c>
       <c r="K59" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="G60" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>766</v>
+      </c>
+      <c r="I60" s="0" t="s">
         <v>761</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="J60" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="K60" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="J60" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>765</v>
-      </c>
       <c r="L60" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="R60" s="0" t="s">
         <v>769</v>
-      </c>
-      <c r="S60" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="T60" s="0" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="0" t="s">
+      <c r="E61" s="0" t="s">
         <v>773</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="F61" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="G61" s="0" t="s">
         <v>775</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="H61" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="I61" s="0" t="s">
         <v>777</v>
       </c>
-      <c r="H61" s="0" t="s">
+      <c r="J61" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="K61" s="0" t="s">
         <v>779</v>
       </c>
-      <c r="J61" s="0" t="s">
+      <c r="L61" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="M61" s="0" t="s">
         <v>781</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="N61" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="M61" s="0" t="s">
+      <c r="R61" s="0" t="s">
         <v>783</v>
       </c>
-      <c r="N61" s="0" t="s">
+      <c r="S61" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="R61" s="0" t="s">
+      <c r="T61" s="0" t="s">
         <v>785</v>
-      </c>
-      <c r="S61" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="T61" s="0" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="E62" s="0" t="s">
         <v>789</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="F62" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="G62" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="H62" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="G62" s="0" t="s">
+      <c r="I62" s="0" t="s">
         <v>793</v>
       </c>
-      <c r="H62" s="0" t="s">
+      <c r="J62" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="I62" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>790</v>
-      </c>
       <c r="K62" s="0" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="T62" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D63" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="I63" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="J63" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="I63" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>803</v>
-      </c>
       <c r="K63" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="R63" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="N64" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="R64" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="S64" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="T64" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>819</v>
+        <v>93</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>820</v>
@@ -6693,162 +6735,162 @@
         <v>825</v>
       </c>
       <c r="I65" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="L65" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="J65" s="0" t="s">
+      <c r="M65" s="0" t="s">
         <v>827</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="N65" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="L65" s="0" t="s">
+      <c r="R65" s="0" t="s">
         <v>829</v>
       </c>
-      <c r="M65" s="0" t="s">
+      <c r="S65" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="N65" s="0" t="s">
+      <c r="T65" s="0" t="s">
         <v>831</v>
-      </c>
-      <c r="R65" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="S65" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="T65" s="0" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>835</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="0" t="s">
+      <c r="E66" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="F66" s="0" t="s">
         <v>837</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="G66" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>839</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="I66" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="J66" s="0" t="s">
         <v>841</v>
       </c>
-      <c r="I66" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="J66" s="0" t="s">
+      <c r="K66" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>838</v>
+      <c r="L66" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>846</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="T66" s="0" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>844</v>
+        <v>93</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="H67" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="I67" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="I67" s="0" t="s">
-        <v>845</v>
-      </c>
       <c r="J67" s="0" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>79</v>
+        <v>858</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>859</v>
-      </c>
-      <c r="N68" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="R68" s="0" t="s">
         <v>861</v>
-      </c>
-      <c r="S68" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="T68" s="0" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>865</v>
+        <v>93</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>866</v>
@@ -6869,530 +6911,539 @@
         <v>871</v>
       </c>
       <c r="I69" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>867</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="L69" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="J69" s="0" t="s">
+      <c r="M69" s="0" t="s">
         <v>873</v>
       </c>
-      <c r="K69" s="0" t="s">
+      <c r="N69" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="L69" s="0" t="s">
+      <c r="R69" s="0" t="s">
         <v>875</v>
       </c>
-      <c r="M69" s="0" t="s">
+      <c r="S69" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="N69" s="0" t="s">
+      <c r="T69" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="R69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="S69" s="0" t="s">
+      <c r="B70" s="0" t="s">
         <v>879</v>
       </c>
-      <c r="T69" s="0" t="s">
+      <c r="C70" s="0" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="D70" s="0" t="s">
         <v>881</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="0" t="s">
+      <c r="E70" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="F70" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="G70" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="H70" s="0" t="s">
         <v>885</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="I70" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="J70" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="K70" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="J70" s="0" t="s">
+      <c r="L70" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="K70" s="0" t="s">
+      <c r="M70" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="N70" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="R70" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="S70" s="0" t="s">
         <v>893</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="T70" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="P70" s="2" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>895</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="B71" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="D71" s="0" t="s">
         <v>897</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="0" t="s">
+      <c r="E71" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="F71" s="0" t="s">
         <v>899</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="G71" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="H71" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="I71" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="H71" s="0" t="s">
+      <c r="J71" s="0" t="s">
         <v>903</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="K71" s="0" t="s">
         <v>904</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="L71" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="K71" s="0" t="s">
+      <c r="M71" s="2" t="s">
         <v>906</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>224</v>
+        <v>913</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>916</v>
+        <v>238</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>142</v>
+        <v>929</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>143</v>
+        <v>930</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>144</v>
+        <v>931</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="P74" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="Q74" s="0" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>938</v>
+        <v>156</v>
       </c>
       <c r="D75" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F75" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="G75" s="0" t="s">
         <v>940</v>
       </c>
+      <c r="H75" s="0" t="s">
+        <v>941</v>
+      </c>
       <c r="I75" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q75" s="0" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>955</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>964</v>
+        <v>968</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>972</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>969</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>977</v>
+        <v>331</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>981</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>983</v>
+        <v>954</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>979</v>
+        <v>988</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>985</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="R81" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="S81" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="T81" s="0" t="s">
-        <v>735</v>
+        <v>989</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>996</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="I82" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="J82" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="K82" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="I82" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>991</v>
+      <c r="L82" s="0" t="s">
+        <v>998</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R82" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="T82" s="0" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="L83" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I83" s="0" t="s">
         <v>1003</v>
       </c>
-      <c r="M83" s="0" t="s">
+      <c r="J83" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="N83" s="0" t="s">
+      <c r="K83" s="0" t="s">
         <v>1005</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="S83" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="T83" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,175 +7451,219 @@
         <v>1009</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="C85" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R85" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="S85" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="T85" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G85" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H85" s="0" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L85" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M85" s="0" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N85" s="0" t="s">
-        <v>1018</v>
-      </c>
-      <c r="R85" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="S85" s="0" t="s">
-        <v>1007</v>
-      </c>
-      <c r="T85" s="0" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="E86" s="0" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L86" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="M86" s="0" t="s">
         <v>1031</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="N86" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N86" s="0" t="s">
-        <v>1036</v>
-      </c>
       <c r="R86" s="0" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="T86" s="0" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="T87" s="0" t="s">
-        <v>1008</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T88" s="0" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Stat.xlsx
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
